--- a/parts/data/SOL.xlsx
+++ b/parts/data/SOL.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F365"/>
+  <dimension ref="A1:G365"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>Volume</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>ema</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -486,6 +491,9 @@
       <c r="F2" t="n">
         <v>1084780603</v>
       </c>
+      <c r="G2" t="n">
+        <v>178.5179443359375</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -508,6 +516,9 @@
       <c r="F3" t="n">
         <v>995389409</v>
       </c>
+      <c r="G3" t="n">
+        <v>177.9841690063477</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
@@ -530,6 +541,9 @@
       <c r="F4" t="n">
         <v>1345778058</v>
       </c>
+      <c r="G4" t="n">
+        <v>176.0625629425049</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -552,6 +566,9 @@
       <c r="F5" t="n">
         <v>1499265336</v>
       </c>
+      <c r="G5" t="n">
+        <v>174.0316481590271</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -574,6 +591,9 @@
       <c r="F6" t="n">
         <v>2123759721</v>
       </c>
+      <c r="G6" t="n">
+        <v>169.2986689805984</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
@@ -596,6 +616,9 @@
       <c r="F7" t="n">
         <v>2097172620</v>
       </c>
+      <c r="G7" t="n">
+        <v>164.5818394124508</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -618,6 +641,9 @@
       <c r="F8" t="n">
         <v>2926269672</v>
       </c>
+      <c r="G8" t="n">
+        <v>157.5370837524533</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -640,6 +666,9 @@
       <c r="F9" t="n">
         <v>2730000333</v>
       </c>
+      <c r="G9" t="n">
+        <v>153.7811773773283</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
@@ -662,6 +691,9 @@
       <c r="F10" t="n">
         <v>1599123912</v>
       </c>
+      <c r="G10" t="n">
+        <v>150.5456341621466</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -684,6 +716,9 @@
       <c r="F11" t="n">
         <v>2040883379</v>
       </c>
+      <c r="G11" t="n">
+        <v>146.8979608205846</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -706,6 +741,9 @@
       <c r="F12" t="n">
         <v>1554197314</v>
       </c>
+      <c r="G12" t="n">
+        <v>145.2194339027919</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -728,6 +766,9 @@
       <c r="F13" t="n">
         <v>2242337550</v>
       </c>
+      <c r="G13" t="n">
+        <v>146.8403528623967</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -750,6 +791,9 @@
       <c r="F14" t="n">
         <v>2177023564</v>
       </c>
+      <c r="G14" t="n">
+        <v>146.6327747175983</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -772,6 +816,9 @@
       <c r="F15" t="n">
         <v>1822320951</v>
       </c>
+      <c r="G15" t="n">
+        <v>146.5143378131011</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -794,6 +841,9 @@
       <c r="F16" t="n">
         <v>1123271784</v>
       </c>
+      <c r="G16" t="n">
+        <v>146.8360478544547</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -816,6 +866,9 @@
       <c r="F17" t="n">
         <v>1172854751</v>
       </c>
+      <c r="G17" t="n">
+        <v>147.0911662924524</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
@@ -838,6 +891,9 @@
       <c r="F18" t="n">
         <v>1487772250</v>
       </c>
+      <c r="G18" t="n">
+        <v>145.2998772522982</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -860,6 +916,9 @@
       <c r="F19" t="n">
         <v>1449435942</v>
       </c>
+      <c r="G19" t="n">
+        <v>144.3717051193995</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -882,6 +941,9 @@
       <c r="F20" t="n">
         <v>1444663456</v>
       </c>
+      <c r="G20" t="n">
+        <v>142.2268760685535</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
@@ -904,6 +966,9 @@
       <c r="F21" t="n">
         <v>984099352</v>
       </c>
+      <c r="G21" t="n">
+        <v>138.4714780810782</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -926,6 +991,9 @@
       <c r="F22" t="n">
         <v>3771688473</v>
       </c>
+      <c r="G22" t="n">
+        <v>131.8451227667413</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
@@ -948,6 +1016,9 @@
       <c r="F23" t="n">
         <v>4039466376</v>
       </c>
+      <c r="G23" t="n">
+        <v>122.4284339787425</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -970,6 +1041,9 @@
       <c r="F24" t="n">
         <v>2548191912</v>
       </c>
+      <c r="G24" t="n">
+        <v>116.7158815295891</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
@@ -992,6 +1066,9 @@
       <c r="F25" t="n">
         <v>4664539688</v>
       </c>
+      <c r="G25" t="n">
+        <v>110.4494515829828</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1014,6 +1091,9 @@
       <c r="F26" t="n">
         <v>2842652332</v>
       </c>
+      <c r="G26" t="n">
+        <v>106.51717673045</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1036,6 +1116,9 @@
       <c r="F27" t="n">
         <v>3177186515</v>
       </c>
+      <c r="G27" t="n">
+        <v>102.9473937325299</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1058,6 +1141,9 @@
       <c r="F28" t="n">
         <v>2513945822</v>
       </c>
+      <c r="G28" t="n">
+        <v>99.61866831575483</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
@@ -1080,6 +1166,9 @@
       <c r="F29" t="n">
         <v>2156098049</v>
       </c>
+      <c r="G29" t="n">
+        <v>97.54222541894504</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1102,6 +1191,9 @@
       <c r="F30" t="n">
         <v>1727329992</v>
       </c>
+      <c r="G30" t="n">
+        <v>97.21254102770976</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1124,6 +1216,9 @@
       <c r="F31" t="n">
         <v>1110338981</v>
       </c>
+      <c r="G31" t="n">
+        <v>96.23382479238876</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1146,6 +1241,9 @@
       <c r="F32" t="n">
         <v>1888454241</v>
       </c>
+      <c r="G32" t="n">
+        <v>97.11007814324176</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
@@ -1168,6 +1266,9 @@
       <c r="F33" t="n">
         <v>3568466349</v>
       </c>
+      <c r="G33" t="n">
+        <v>100.3273038619479</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1190,6 +1291,9 @@
       <c r="F34" t="n">
         <v>3297984784</v>
       </c>
+      <c r="G34" t="n">
+        <v>100.7048780734629</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1212,6 +1316,9 @@
       <c r="F35" t="n">
         <v>2618951519</v>
       </c>
+      <c r="G35" t="n">
+        <v>100.8934180002876</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1234,6 +1341,9 @@
       <c r="F36" t="n">
         <v>3121470028</v>
       </c>
+      <c r="G36" t="n">
+        <v>103.7136254356405</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1256,6 +1366,9 @@
       <c r="F37" t="n">
         <v>2337469324</v>
       </c>
+      <c r="G37" t="n">
+        <v>106.2587946687714</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1278,6 +1391,9 @@
       <c r="F38" t="n">
         <v>1488437091</v>
       </c>
+      <c r="G38" t="n">
+        <v>108.5190357293617</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1300,6 +1416,9 @@
       <c r="F39" t="n">
         <v>2501444983</v>
       </c>
+      <c r="G39" t="n">
+        <v>110.7280638758787</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1322,6 +1441,9 @@
       <c r="F40" t="n">
         <v>2670414753</v>
       </c>
+      <c r="G40" t="n">
+        <v>111.4449183750487</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
@@ -1344,6 +1466,9 @@
       <c r="F41" t="n">
         <v>1844036035</v>
       </c>
+      <c r="G41" t="n">
+        <v>112.0885334468139</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1366,6 +1491,9 @@
       <c r="F42" t="n">
         <v>2534257400</v>
       </c>
+      <c r="G42" t="n">
+        <v>110.6171012264678</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1388,6 +1516,9 @@
       <c r="F43" t="n">
         <v>2244853464</v>
       </c>
+      <c r="G43" t="n">
+        <v>107.0582963483177</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1410,6 +1541,9 @@
       <c r="F44" t="n">
         <v>1722515979</v>
       </c>
+      <c r="G44" t="n">
+        <v>104.2732735765459</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1432,6 +1566,9 @@
       <c r="F45" t="n">
         <v>1150014559</v>
       </c>
+      <c r="G45" t="n">
+        <v>101.5159808019162</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1454,6 +1591,9 @@
       <c r="F46" t="n">
         <v>1787236369</v>
       </c>
+      <c r="G46" t="n">
+        <v>100.2453039302946</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
@@ -1476,6 +1616,9 @@
       <c r="F47" t="n">
         <v>2134576044</v>
       </c>
+      <c r="G47" t="n">
+        <v>101.4023045163245</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1498,6 +1641,9 @@
       <c r="F48" t="n">
         <v>1908954820</v>
       </c>
+      <c r="G48" t="n">
+        <v>101.5349532560178</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
@@ -1520,6 +1666,9 @@
       <c r="F49" t="n">
         <v>1872498133</v>
       </c>
+      <c r="G49" t="n">
+        <v>99.50382076171549</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1542,6 +1691,9 @@
       <c r="F50" t="n">
         <v>1669246812</v>
       </c>
+      <c r="G50" t="n">
+        <v>97.14423062255615</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
@@ -1564,6 +1716,9 @@
       <c r="F51" t="n">
         <v>1084605729</v>
       </c>
+      <c r="G51" t="n">
+        <v>95.7323356408673</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
@@ -1586,6 +1741,9 @@
       <c r="F52" t="n">
         <v>1912980153</v>
       </c>
+      <c r="G52" t="n">
+        <v>94.52460497161728</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1608,6 +1766,9 @@
       <c r="F53" t="n">
         <v>2892900595</v>
       </c>
+      <c r="G53" t="n">
+        <v>91.67424405769245</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -1630,6 +1791,9 @@
       <c r="F54" t="n">
         <v>2046554018</v>
       </c>
+      <c r="G54" t="n">
+        <v>90.37202940252226</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -1652,6 +1816,9 @@
       <c r="F55" t="n">
         <v>2293962445</v>
       </c>
+      <c r="G55" t="n">
+        <v>89.0047186156124</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -1674,6 +1841,9 @@
       <c r="F56" t="n">
         <v>5253578948</v>
       </c>
+      <c r="G56" t="n">
+        <v>89.05222594291047</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -1696,6 +1866,9 @@
       <c r="F57" t="n">
         <v>3069242551</v>
       </c>
+      <c r="G57" t="n">
+        <v>89.93887534402367</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -1718,6 +1891,9 @@
       <c r="F58" t="n">
         <v>1721041901</v>
       </c>
+      <c r="G58" t="n">
+        <v>89.98954736189958</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -1740,6 +1916,9 @@
       <c r="F59" t="n">
         <v>2012522473</v>
       </c>
+      <c r="G59" t="n">
+        <v>88.87192317096083</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -1762,6 +1941,9 @@
       <c r="F60" t="n">
         <v>3457872746</v>
       </c>
+      <c r="G60" t="n">
+        <v>91.53402927702433</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -1784,6 +1966,9 @@
       <c r="F61" t="n">
         <v>3225742519</v>
       </c>
+      <c r="G61" t="n">
+        <v>93.31391116370087</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -1806,6 +1991,9 @@
       <c r="F62" t="n">
         <v>3800592927</v>
       </c>
+      <c r="G62" t="n">
+        <v>95.147842201511</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -1828,6 +2016,9 @@
       <c r="F63" t="n">
         <v>2309311748</v>
       </c>
+      <c r="G63" t="n">
+        <v>95.24568160840863</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
@@ -1850,6 +2041,9 @@
       <c r="F64" t="n">
         <v>2592829728</v>
       </c>
+      <c r="G64" t="n">
+        <v>93.49575603357698</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
@@ -1872,6 +2066,9 @@
       <c r="F65" t="n">
         <v>1437161887</v>
       </c>
+      <c r="G65" t="n">
+        <v>92.53377762698938</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
@@ -1894,6 +2091,9 @@
       <c r="F66" t="n">
         <v>1467561782</v>
       </c>
+      <c r="G66" t="n">
+        <v>90.53587895083285</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
@@ -1916,6 +2116,9 @@
       <c r="F67" t="n">
         <v>2375648176</v>
       </c>
+      <c r="G67" t="n">
+        <v>88.43442569261683</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
@@ -1938,6 +2141,9 @@
       <c r="F68" t="n">
         <v>2112765959</v>
       </c>
+      <c r="G68" t="n">
+        <v>86.88950945500949</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
@@ -1960,6 +2166,9 @@
       <c r="F69" t="n">
         <v>2624860794</v>
       </c>
+      <c r="G69" t="n">
+        <v>87.21764821979716</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
@@ -1982,6 +2191,9 @@
       <c r="F70" t="n">
         <v>2196400279</v>
       </c>
+      <c r="G70" t="n">
+        <v>86.14800789336348</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
@@ -2004,6 +2216,9 @@
       <c r="F71" t="n">
         <v>1852734626</v>
       </c>
+      <c r="G71" t="n">
+        <v>84.7972546993195</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
@@ -2026,6 +2241,9 @@
       <c r="F72" t="n">
         <v>1036290480</v>
       </c>
+      <c r="G72" t="n">
+        <v>83.98639546174547</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
@@ -2048,6 +2266,9 @@
       <c r="F73" t="n">
         <v>1316842580</v>
       </c>
+      <c r="G73" t="n">
+        <v>82.72381492211477</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
@@ -2070,6 +2291,9 @@
       <c r="F74" t="n">
         <v>1676601058</v>
       </c>
+      <c r="G74" t="n">
+        <v>82.33619615252357</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
@@ -2092,6 +2316,9 @@
       <c r="F75" t="n">
         <v>1627848455</v>
       </c>
+      <c r="G75" t="n">
+        <v>82.4909185529913</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
@@ -2114,6 +2341,9 @@
       <c r="F76" t="n">
         <v>2370877301</v>
       </c>
+      <c r="G76" t="n">
+        <v>83.8440952868138</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
@@ -2136,6 +2366,9 @@
       <c r="F77" t="n">
         <v>2440062581</v>
       </c>
+      <c r="G77" t="n">
+        <v>84.85228304347949</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
@@ -2158,6 +2391,9 @@
       <c r="F78" t="n">
         <v>2745357460</v>
       </c>
+      <c r="G78" t="n">
+        <v>86.09472146840064</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
@@ -2180,6 +2416,9 @@
       <c r="F79" t="n">
         <v>1951674158</v>
       </c>
+      <c r="G79" t="n">
+        <v>87.67557906516767</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
@@ -2202,6 +2441,9 @@
       <c r="F80" t="n">
         <v>1286133603</v>
       </c>
+      <c r="G80" t="n">
+        <v>87.91039943254275</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
@@ -2224,6 +2466,9 @@
       <c r="F81" t="n">
         <v>1598537312</v>
       </c>
+      <c r="G81" t="n">
+        <v>88.12210011151643</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
@@ -2246,6 +2491,9 @@
       <c r="F82" t="n">
         <v>1879747152</v>
       </c>
+      <c r="G82" t="n">
+        <v>88.7198175763131</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
@@ -2268,6 +2516,9 @@
       <c r="F83" t="n">
         <v>2099467745</v>
       </c>
+      <c r="G83" t="n">
+        <v>90.31553418748385</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
@@ -2290,6 +2541,9 @@
       <c r="F84" t="n">
         <v>3601646600</v>
       </c>
+      <c r="G84" t="n">
+        <v>93.29257410252693</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
@@ -2312,6 +2566,9 @@
       <c r="F85" t="n">
         <v>2175497007</v>
       </c>
+      <c r="G85" t="n">
+        <v>94.63395656261297</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
@@ -2334,6 +2591,9 @@
       <c r="F86" t="n">
         <v>1282869612</v>
       </c>
+      <c r="G86" t="n">
+        <v>96.41651318306812</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
@@ -2356,6 +2616,9 @@
       <c r="F87" t="n">
         <v>1572329892</v>
       </c>
+      <c r="G87" t="n">
+        <v>99.08344010885872</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
@@ -2378,6 +2641,9 @@
       <c r="F88" t="n">
         <v>2877146388</v>
       </c>
+      <c r="G88" t="n">
+        <v>100.9288940159702</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
@@ -2400,6 +2666,9 @@
       <c r="F89" t="n">
         <v>3052274877</v>
       </c>
+      <c r="G89" t="n">
+        <v>103.6242484843898</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
@@ -2422,6 +2691,9 @@
       <c r="F90" t="n">
         <v>3908170428</v>
       </c>
+      <c r="G90" t="n">
+        <v>107.8930578079945</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
@@ -2444,6 +2716,9 @@
       <c r="F91" t="n">
         <v>4115229587</v>
       </c>
+      <c r="G91" t="n">
+        <v>111.585158575112</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
@@ -2466,6 +2741,9 @@
       <c r="F92" t="n">
         <v>4434807484</v>
       </c>
+      <c r="G92" t="n">
+        <v>117.2966036115098</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
@@ -2488,6 +2766,9 @@
       <c r="F93" t="n">
         <v>3394186456</v>
       </c>
+      <c r="G93" t="n">
+        <v>121.0221696580953</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
@@ -2510,6 +2791,9 @@
       <c r="F94" t="n">
         <v>2585967812</v>
       </c>
+      <c r="G94" t="n">
+        <v>124.9604596410324</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
@@ -2532,6 +2816,9 @@
       <c r="F95" t="n">
         <v>2828117206</v>
       </c>
+      <c r="G95" t="n">
+        <v>126.8235017742313</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
@@ -2554,6 +2841,9 @@
       <c r="F96" t="n">
         <v>2239922210</v>
       </c>
+      <c r="G96" t="n">
+        <v>126.8331853364108</v>
+      </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
@@ -2576,6 +2866,9 @@
       <c r="F97" t="n">
         <v>3281009143</v>
       </c>
+      <c r="G97" t="n">
+        <v>123.3457351784555</v>
+      </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
@@ -2598,6 +2891,9 @@
       <c r="F98" t="n">
         <v>2431083313</v>
       </c>
+      <c r="G98" t="n">
+        <v>122.2084304884559</v>
+      </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
@@ -2620,6 +2916,9 @@
       <c r="F99" t="n">
         <v>2376864565</v>
       </c>
+      <c r="G99" t="n">
+        <v>119.1065429743742</v>
+      </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
@@ -2642,6 +2941,9 @@
       <c r="F100" t="n">
         <v>1202250516</v>
       </c>
+      <c r="G100" t="n">
+        <v>117.573105625556</v>
+      </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
@@ -2664,6 +2966,9 @@
       <c r="F101" t="n">
         <v>1280232450</v>
       </c>
+      <c r="G101" t="n">
+        <v>116.1154390366719</v>
+      </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
@@ -2686,6 +2991,9 @@
       <c r="F102" t="n">
         <v>2272498194</v>
       </c>
+      <c r="G102" t="n">
+        <v>111.9213552021865</v>
+      </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
@@ -2708,6 +3016,9 @@
       <c r="F103" t="n">
         <v>2317008207</v>
       </c>
+      <c r="G103" t="n">
+        <v>109.767613615385</v>
+      </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
@@ -2730,6 +3041,9 @@
       <c r="F104" t="n">
         <v>1675840412</v>
       </c>
+      <c r="G104" t="n">
+        <v>108.5761965854401</v>
+      </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
@@ -2752,6 +3066,9 @@
       <c r="F105" t="n">
         <v>1686576071</v>
       </c>
+      <c r="G105" t="n">
+        <v>106.609097893792</v>
+      </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
@@ -2774,6 +3091,9 @@
       <c r="F106" t="n">
         <v>1050639351</v>
       </c>
+      <c r="G106" t="n">
+        <v>105.2842674968821</v>
+      </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
@@ -2796,6 +3116,9 @@
       <c r="F107" t="n">
         <v>774939305</v>
       </c>
+      <c r="G107" t="n">
+        <v>104.5275297700005</v>
+      </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
@@ -2818,6 +3141,9 @@
       <c r="F108" t="n">
         <v>1057908299</v>
       </c>
+      <c r="G108" t="n">
+        <v>103.4980719490824</v>
+      </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
@@ -2840,6 +3166,9 @@
       <c r="F109" t="n">
         <v>1846133932</v>
       </c>
+      <c r="G109" t="n">
+        <v>103.163186759053</v>
+      </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
@@ -2862,6 +3191,9 @@
       <c r="F110" t="n">
         <v>1711909607</v>
       </c>
+      <c r="G110" t="n">
+        <v>104.5178978817897</v>
+      </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
@@ -2884,6 +3216,9 @@
       <c r="F111" t="n">
         <v>1761531528</v>
       </c>
+      <c r="G111" t="n">
+        <v>104.7626738233296</v>
+      </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
@@ -2906,6 +3241,9 @@
       <c r="F112" t="n">
         <v>1838571747</v>
       </c>
+      <c r="G112" t="n">
+        <v>104.0160399439132</v>
+      </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
@@ -2928,6 +3266,9 @@
       <c r="F113" t="n">
         <v>1274793594</v>
       </c>
+      <c r="G113" t="n">
+        <v>103.1650431873051</v>
+      </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
@@ -2950,6 +3291,9 @@
       <c r="F114" t="n">
         <v>823252482</v>
       </c>
+      <c r="G114" t="n">
+        <v>102.5598919333255</v>
+      </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
@@ -2972,6 +3316,9 @@
       <c r="F115" t="n">
         <v>818266008</v>
       </c>
+      <c r="G115" t="n">
+        <v>101.7288674668398</v>
+      </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
@@ -2994,6 +3341,9 @@
       <c r="F116" t="n">
         <v>1538486689</v>
       </c>
+      <c r="G116" t="n">
+        <v>101.6085593220537</v>
+      </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
@@ -3016,6 +3366,9 @@
       <c r="F117" t="n">
         <v>1301074534</v>
       </c>
+      <c r="G117" t="n">
+        <v>100.1519570586789</v>
+      </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
@@ -3038,6 +3391,9 @@
       <c r="F118" t="n">
         <v>1253566599</v>
       </c>
+      <c r="G118" t="n">
+        <v>99.70868481976603</v>
+      </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
@@ -3060,6 +3416,9 @@
       <c r="F119" t="n">
         <v>1307131609</v>
       </c>
+      <c r="G119" t="n">
+        <v>99.32794610994171</v>
+      </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
@@ -3082,6 +3441,9 @@
       <c r="F120" t="n">
         <v>1234575023</v>
       </c>
+      <c r="G120" t="n">
+        <v>97.99879580987327</v>
+      </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
@@ -3104,6 +3466,9 @@
       <c r="F121" t="n">
         <v>1293033765</v>
       </c>
+      <c r="G121" t="n">
+        <v>94.77307985911393</v>
+      </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
@@ -3126,6 +3491,9 @@
       <c r="F122" t="n">
         <v>1426749080</v>
       </c>
+      <c r="G122" t="n">
+        <v>93.49768709160108</v>
+      </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
@@ -3148,6 +3516,9 @@
       <c r="F123" t="n">
         <v>1265220129</v>
       </c>
+      <c r="G123" t="n">
+        <v>92.01851945383265</v>
+      </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
@@ -3170,6 +3541,9 @@
       <c r="F124" t="n">
         <v>1011988792</v>
       </c>
+      <c r="G124" t="n">
+        <v>90.47448376762058</v>
+      </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
@@ -3192,6 +3566,9 @@
       <c r="F125" t="n">
         <v>1428455342</v>
       </c>
+      <c r="G125" t="n">
+        <v>91.04857560952891</v>
+      </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
@@ -3214,6 +3591,9 @@
       <c r="F126" t="n">
         <v>1805979399</v>
       </c>
+      <c r="G126" t="n">
+        <v>89.43543759703925</v>
+      </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
@@ -3236,6 +3616,9 @@
       <c r="F127" t="n">
         <v>1585081920</v>
       </c>
+      <c r="G127" t="n">
+        <v>87.51760488540151</v>
+      </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
@@ -3258,6 +3641,9 @@
       <c r="F128" t="n">
         <v>1139093165</v>
       </c>
+      <c r="G128" t="n">
+        <v>85.38405899547203</v>
+      </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
@@ -3280,6 +3666,9 @@
       <c r="F129" t="n">
         <v>1439700868</v>
       </c>
+      <c r="G129" t="n">
+        <v>82.84309032814699</v>
+      </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
@@ -3302,6 +3691,9 @@
       <c r="F130" t="n">
         <v>2773999164</v>
       </c>
+      <c r="G130" t="n">
+        <v>77.94973107618836</v>
+      </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
@@ -3324,6 +3716,9 @@
       <c r="F131" t="n">
         <v>3677013066</v>
       </c>
+      <c r="G131" t="n">
+        <v>75.15383616419693</v>
+      </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
@@ -3346,6 +3741,9 @@
       <c r="F132" t="n">
         <v>4432811558</v>
       </c>
+      <c r="G132" t="n">
+        <v>68.91808956363842</v>
+      </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
@@ -3368,6 +3766,9 @@
       <c r="F133" t="n">
         <v>4471167155</v>
       </c>
+      <c r="G133" t="n">
+        <v>62.85946465655449</v>
+      </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
@@ -3390,6 +3791,9 @@
       <c r="F134" t="n">
         <v>2854210432</v>
       </c>
+      <c r="G134" t="n">
+        <v>59.29298640135141</v>
+      </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
@@ -3412,6 +3816,9 @@
       <c r="F135" t="n">
         <v>2042138537</v>
       </c>
+      <c r="G135" t="n">
+        <v>57.57404602202186</v>
+      </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
@@ -3434,6 +3841,9 @@
       <c r="F136" t="n">
         <v>1843835578</v>
       </c>
+      <c r="G136" t="n">
+        <v>57.88334957236356</v>
+      </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
@@ -3456,6 +3866,9 @@
       <c r="F137" t="n">
         <v>2067312217</v>
       </c>
+      <c r="G137" t="n">
+        <v>56.82412755097678</v>
+      </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
@@ -3478,6 +3891,9 @@
       <c r="F138" t="n">
         <v>1823895389</v>
       </c>
+      <c r="G138" t="n">
+        <v>56.89950206582047</v>
+      </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
@@ -3500,6 +3916,9 @@
       <c r="F139" t="n">
         <v>1745565671</v>
       </c>
+      <c r="G139" t="n">
+        <v>55.11367913115247</v>
+      </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
@@ -3522,6 +3941,9 @@
       <c r="F140" t="n">
         <v>1958004386</v>
       </c>
+      <c r="G140" t="n">
+        <v>54.38875380179452</v>
+      </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
@@ -3544,6 +3966,9 @@
       <c r="F141" t="n">
         <v>1830699507</v>
       </c>
+      <c r="G141" t="n">
+        <v>53.17619269357002</v>
+      </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
@@ -3566,6 +3991,9 @@
       <c r="F142" t="n">
         <v>979492374</v>
       </c>
+      <c r="G142" t="n">
+        <v>52.46163995017019</v>
+      </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
@@ -3588,6 +4016,9 @@
       <c r="F143" t="n">
         <v>1105760506</v>
       </c>
+      <c r="G143" t="n">
+        <v>52.53502505234932</v>
+      </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
@@ -3610,6 +4041,9 @@
       <c r="F144" t="n">
         <v>1661669360</v>
       </c>
+      <c r="G144" t="n">
+        <v>51.66548139759939</v>
+      </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
@@ -3632,6 +4066,9 @@
       <c r="F145" t="n">
         <v>1508166642</v>
       </c>
+      <c r="G145" t="n">
+        <v>51.16244494102181</v>
+      </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
@@ -3654,6 +4091,9 @@
       <c r="F146" t="n">
         <v>1304580067</v>
       </c>
+      <c r="G146" t="n">
+        <v>50.36744012819067</v>
+      </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
@@ -3676,6 +4116,9 @@
       <c r="F147" t="n">
         <v>2208994514</v>
       </c>
+      <c r="G147" t="n">
+        <v>48.648382830518</v>
+      </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
@@ -3698,6 +4141,9 @@
       <c r="F148" t="n">
         <v>2256358026</v>
       </c>
+      <c r="G148" t="n">
+        <v>46.73162365548127</v>
+      </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
@@ -3720,6 +4166,9 @@
       <c r="F149" t="n">
         <v>1254325884</v>
       </c>
+      <c r="G149" t="n">
+        <v>46.13450837576623</v>
+      </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
@@ -3742,6 +4191,9 @@
       <c r="F150" t="n">
         <v>1317843243</v>
       </c>
+      <c r="G150" t="n">
+        <v>45.82828492257174</v>
+      </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
@@ -3764,6 +4216,9 @@
       <c r="F151" t="n">
         <v>1708817065</v>
       </c>
+      <c r="G151" t="n">
+        <v>46.16607453177255</v>
+      </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
@@ -3786,6 +4241,9 @@
       <c r="F152" t="n">
         <v>1509191627</v>
       </c>
+      <c r="G152" t="n">
+        <v>46.06651623360725</v>
+      </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
@@ -3808,6 +4266,9 @@
       <c r="F153" t="n">
         <v>1422647092</v>
       </c>
+      <c r="G153" t="n">
+        <v>44.61730431998082</v>
+      </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
@@ -3830,6 +4291,9 @@
       <c r="F154" t="n">
         <v>1554022054</v>
       </c>
+      <c r="G154" t="n">
+        <v>43.68581473443142</v>
+      </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
@@ -3852,6 +4316,9 @@
       <c r="F155" t="n">
         <v>1348656102</v>
       </c>
+      <c r="G155" t="n">
+        <v>42.32916608164632</v>
+      </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
@@ -3874,6 +4341,9 @@
       <c r="F156" t="n">
         <v>1130762770</v>
       </c>
+      <c r="G156" t="n">
+        <v>41.4797360800946</v>
+      </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
@@ -3896,6 +4366,9 @@
       <c r="F157" t="n">
         <v>998532387</v>
       </c>
+      <c r="G157" t="n">
+        <v>40.72993546003433</v>
+      </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
@@ -3918,6 +4391,9 @@
       <c r="F158" t="n">
         <v>1955057411</v>
       </c>
+      <c r="G158" t="n">
+        <v>41.15573463793346</v>
+      </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
@@ -3940,6 +4416,9 @@
       <c r="F159" t="n">
         <v>1974825213</v>
       </c>
+      <c r="G159" t="n">
+        <v>40.72619409826211</v>
+      </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
@@ -3962,6 +4441,9 @@
       <c r="F160" t="n">
         <v>1211034282</v>
       </c>
+      <c r="G160" t="n">
+        <v>40.25548770626494</v>
+      </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
@@ -3984,6 +4466,9 @@
       <c r="F161" t="n">
         <v>1265873005</v>
       </c>
+      <c r="G161" t="n">
+        <v>40.18476744443259</v>
+      </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
@@ -4006,6 +4491,9 @@
       <c r="F162" t="n">
         <v>1177042406</v>
       </c>
+      <c r="G162" t="n">
+        <v>39.41101744733812</v>
+      </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
@@ -4028,6 +4516,9 @@
       <c r="F163" t="n">
         <v>1086904917</v>
       </c>
+      <c r="G163" t="n">
+        <v>38.01354243578435</v>
+      </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
@@ -4050,6 +4541,9 @@
       <c r="F164" t="n">
         <v>1430666510</v>
       </c>
+      <c r="G164" t="n">
+        <v>36.19597454534412</v>
+      </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
@@ -4072,6 +4566,9 @@
       <c r="F165" t="n">
         <v>2577135234</v>
       </c>
+      <c r="G165" t="n">
+        <v>34.19507136692435</v>
+      </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
@@ -4094,6 +4591,9 @@
       <c r="F166" t="n">
         <v>2317785256</v>
       </c>
+      <c r="G166" t="n">
+        <v>33.0749581959086</v>
+      </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
@@ -4116,6 +4616,9 @@
       <c r="F167" t="n">
         <v>2574959860</v>
       </c>
+      <c r="G167" t="n">
+        <v>33.42820408241729</v>
+      </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
@@ -4138,6 +4641,9 @@
       <c r="F168" t="n">
         <v>1908909523</v>
       </c>
+      <c r="G168" t="n">
+        <v>32.56858863157615</v>
+      </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
@@ -4160,6 +4666,9 @@
       <c r="F169" t="n">
         <v>1283536081</v>
       </c>
+      <c r="G169" t="n">
+        <v>32.11217145415086</v>
+      </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
@@ -4182,6 +4691,9 @@
       <c r="F170" t="n">
         <v>1804420726</v>
       </c>
+      <c r="G170" t="n">
+        <v>32.03611251929357</v>
+      </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
@@ -4204,6 +4716,9 @@
       <c r="F171" t="n">
         <v>2005402608</v>
       </c>
+      <c r="G171" t="n">
+        <v>32.58802131726559</v>
+      </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
@@ -4226,6 +4741,9 @@
       <c r="F172" t="n">
         <v>1958378683</v>
       </c>
+      <c r="G172" t="n">
+        <v>33.29529455240231</v>
+      </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
@@ -4248,6 +4766,9 @@
       <c r="F173" t="n">
         <v>1790090431</v>
       </c>
+      <c r="G173" t="n">
+        <v>34.00176056426511</v>
+      </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
@@ -4270,6 +4791,9 @@
       <c r="F174" t="n">
         <v>1533123071</v>
       </c>
+      <c r="G174" t="n">
+        <v>34.03172928245176</v>
+      </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
@@ -4292,6 +4816,9 @@
       <c r="F175" t="n">
         <v>1666479184</v>
       </c>
+      <c r="G175" t="n">
+        <v>35.06760494523726</v>
+      </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
@@ -4314,6 +4841,9 @@
       <c r="F176" t="n">
         <v>1765927064</v>
       </c>
+      <c r="G176" t="n">
+        <v>36.85371560315402</v>
+      </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
@@ -4336,6 +4866,9 @@
       <c r="F177" t="n">
         <v>1271293523</v>
       </c>
+      <c r="G177" t="n">
+        <v>38.22349001810038</v>
+      </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
@@ -4358,6 +4891,9 @@
       <c r="F178" t="n">
         <v>1138724690</v>
       </c>
+      <c r="G178" t="n">
+        <v>38.51963968459579</v>
+      </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
@@ -4380,6 +4916,9 @@
       <c r="F179" t="n">
         <v>1253389517</v>
       </c>
+      <c r="G179" t="n">
+        <v>38.50254275935748</v>
+      </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
@@ -4402,6 +4941,9 @@
       <c r="F180" t="n">
         <v>1361946847</v>
       </c>
+      <c r="G180" t="n">
+        <v>37.70851679547026</v>
+      </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
@@ -4424,6 +4966,9 @@
       <c r="F181" t="n">
         <v>1366803516</v>
       </c>
+      <c r="G181" t="n">
+        <v>36.74986293839957</v>
+      </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
@@ -4446,6 +4991,9 @@
       <c r="F182" t="n">
         <v>1321861663</v>
       </c>
+      <c r="G182" t="n">
+        <v>35.95950146710535</v>
+      </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
@@ -4468,6 +5016,9 @@
       <c r="F183" t="n">
         <v>1427407655</v>
       </c>
+      <c r="G183" t="n">
+        <v>35.17039361741885</v>
+      </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
@@ -4490,6 +5041,9 @@
       <c r="F184" t="n">
         <v>765552187</v>
       </c>
+      <c r="G184" t="n">
+        <v>34.71764754613299</v>
+      </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
@@ -4512,6 +5066,9 @@
       <c r="F185" t="n">
         <v>605659825</v>
       </c>
+      <c r="G185" t="n">
+        <v>34.38471889019056</v>
+      </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
@@ -4534,6 +5091,9 @@
       <c r="F186" t="n">
         <v>1091202628</v>
       </c>
+      <c r="G186" t="n">
+        <v>34.98479675889048</v>
+      </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
@@ -4556,6 +5116,9 @@
       <c r="F187" t="n">
         <v>1569156882</v>
       </c>
+      <c r="G187" t="n">
+        <v>35.08748596638466</v>
+      </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
@@ -4578,6 +5141,9 @@
       <c r="F188" t="n">
         <v>1410588451</v>
       </c>
+      <c r="G188" t="n">
+        <v>35.58400513030607</v>
+      </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
@@ -4600,6 +5166,9 @@
       <c r="F189" t="n">
         <v>1189167903</v>
       </c>
+      <c r="G189" t="n">
+        <v>36.31758053077399</v>
+      </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
@@ -4622,6 +5191,9 @@
       <c r="F190" t="n">
         <v>1485794730</v>
       </c>
+      <c r="G190" t="n">
+        <v>36.80986546705022</v>
+      </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
@@ -4644,6 +5216,9 @@
       <c r="F191" t="n">
         <v>789899204</v>
       </c>
+      <c r="G191" t="n">
+        <v>37.12538921259235</v>
+      </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
@@ -4666,6 +5241,9 @@
       <c r="F192" t="n">
         <v>714119421</v>
       </c>
+      <c r="G192" t="n">
+        <v>37.01844414638274</v>
+      </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
@@ -4688,6 +5266,9 @@
       <c r="F193" t="n">
         <v>930216020</v>
       </c>
+      <c r="G193" t="n">
+        <v>36.12973314945991</v>
+      </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
@@ -4710,6 +5291,9 @@
       <c r="F194" t="n">
         <v>916386230</v>
       </c>
+      <c r="G194" t="n">
+        <v>35.28669862765889</v>
+      </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
@@ -4732,6 +5316,9 @@
       <c r="F195" t="n">
         <v>1313110217</v>
       </c>
+      <c r="G195" t="n">
+        <v>35.19275853647903</v>
+      </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
@@ -4754,6 +5341,9 @@
       <c r="F196" t="n">
         <v>1320137563</v>
       </c>
+      <c r="G196" t="n">
+        <v>35.6715245069125</v>
+      </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
@@ -4776,6 +5366,9 @@
       <c r="F197" t="n">
         <v>1266226950</v>
       </c>
+      <c r="G197" t="n">
+        <v>36.10762535192509</v>
+      </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
@@ -4798,6 +5391,9 @@
       <c r="F198" t="n">
         <v>1149921714</v>
       </c>
+      <c r="G198" t="n">
+        <v>36.97424985958591</v>
+      </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
@@ -4820,6 +5416,9 @@
       <c r="F199" t="n">
         <v>1119935904</v>
       </c>
+      <c r="G199" t="n">
+        <v>37.39186789090525</v>
+      </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
@@ -4842,6 +5441,9 @@
       <c r="F200" t="n">
         <v>1793335611</v>
       </c>
+      <c r="G200" t="n">
+        <v>38.98044056814232</v>
+      </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
@@ -4864,6 +5466,9 @@
       <c r="F201" t="n">
         <v>2530289999</v>
       </c>
+      <c r="G201" t="n">
+        <v>40.46029933632403</v>
+      </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
@@ -4886,6 +5491,9 @@
       <c r="F202" t="n">
         <v>2020822242</v>
       </c>
+      <c r="G202" t="n">
+        <v>40.86864197508238</v>
+      </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
@@ -4908,6 +5516,9 @@
       <c r="F203" t="n">
         <v>1926399176</v>
       </c>
+      <c r="G203" t="n">
+        <v>41.44912991118239</v>
+      </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
@@ -4930,6 +5541,9 @@
       <c r="F204" t="n">
         <v>1523873136</v>
       </c>
+      <c r="G204" t="n">
+        <v>41.24147332602595</v>
+      </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
@@ -4952,6 +5566,9 @@
       <c r="F205" t="n">
         <v>1151436691</v>
       </c>
+      <c r="G205" t="n">
+        <v>40.9413493640263</v>
+      </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
@@ -4974,6 +5591,9 @@
       <c r="F206" t="n">
         <v>1115260733</v>
       </c>
+      <c r="G206" t="n">
+        <v>40.95765806488984</v>
+      </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
@@ -4996,6 +5616,9 @@
       <c r="F207" t="n">
         <v>1465847128</v>
       </c>
+      <c r="G207" t="n">
+        <v>39.89624304512734</v>
+      </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
@@ -5018,6 +5641,9 @@
       <c r="F208" t="n">
         <v>1362323126</v>
       </c>
+      <c r="G208" t="n">
+        <v>38.96989556356963</v>
+      </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
@@ -5040,6 +5666,9 @@
       <c r="F209" t="n">
         <v>1829226049</v>
       </c>
+      <c r="G209" t="n">
+        <v>39.30438414368552</v>
+      </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
@@ -5062,6 +5691,9 @@
       <c r="F210" t="n">
         <v>2454901807</v>
       </c>
+      <c r="G210" t="n">
+        <v>40.18960517014207</v>
+      </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
@@ -5084,6 +5716,9 @@
       <c r="F211" t="n">
         <v>2066610408</v>
       </c>
+      <c r="G211" t="n">
+        <v>40.62395341221349</v>
+      </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
@@ -5106,6 +5741,9 @@
       <c r="F212" t="n">
         <v>1980341418</v>
       </c>
+      <c r="G212" t="n">
+        <v>41.40693753230465</v>
+      </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
@@ -5128,6 +5766,9 @@
       <c r="F213" t="n">
         <v>1356657075</v>
       </c>
+      <c r="G213" t="n">
+        <v>41.65525407543698</v>
+      </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
@@ -5150,6 +5791,9 @@
       <c r="F214" t="n">
         <v>1082119921</v>
       </c>
+      <c r="G214" t="n">
+        <v>41.68806149773985</v>
+      </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
@@ -5172,6 +5816,9 @@
       <c r="F215" t="n">
         <v>1205226999</v>
       </c>
+      <c r="G215" t="n">
+        <v>41.20467241267256</v>
+      </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
@@ -5194,6 +5841,9 @@
       <c r="F216" t="n">
         <v>2312325350</v>
       </c>
+      <c r="G216" t="n">
+        <v>40.53960889324465</v>
+      </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
@@ -5216,6 +5866,9 @@
       <c r="F217" t="n">
         <v>1235137178</v>
       </c>
+      <c r="G217" t="n">
+        <v>40.11237497437685</v>
+      </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
@@ -5238,6 +5891,9 @@
       <c r="F218" t="n">
         <v>1198859111</v>
       </c>
+      <c r="G218" t="n">
+        <v>40.22453906617082</v>
+      </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
@@ -5260,6 +5916,9 @@
       <c r="F219" t="n">
         <v>650997770</v>
       </c>
+      <c r="G219" t="n">
+        <v>40.18265600861249</v>
+      </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
@@ -5282,6 +5941,9 @@
       <c r="F220" t="n">
         <v>614104051</v>
       </c>
+      <c r="G220" t="n">
+        <v>40.28838971153749</v>
+      </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
@@ -5304,6 +5966,9 @@
       <c r="F221" t="n">
         <v>1117550363</v>
       </c>
+      <c r="G221" t="n">
+        <v>40.75893010866533</v>
+      </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
@@ -5326,6 +5991,9 @@
       <c r="F222" t="n">
         <v>895263875</v>
       </c>
+      <c r="G222" t="n">
+        <v>40.66235344239988</v>
+      </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
@@ -5348,6 +6016,9 @@
       <c r="F223" t="n">
         <v>1389333742</v>
       </c>
+      <c r="G223" t="n">
+        <v>41.08823198548643</v>
+      </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
@@ -5370,6 +6041,9 @@
       <c r="F224" t="n">
         <v>1735349568</v>
       </c>
+      <c r="G224" t="n">
+        <v>41.52162118607527</v>
+      </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
@@ -5392,6 +6066,9 @@
       <c r="F225" t="n">
         <v>1128246063</v>
       </c>
+      <c r="G225" t="n">
+        <v>42.47490557919269</v>
+      </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
@@ -5414,6 +6091,9 @@
       <c r="F226" t="n">
         <v>1416039040</v>
       </c>
+      <c r="G226" t="n">
+        <v>43.4775161213452</v>
+      </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
@@ -5436,6 +6116,9 @@
       <c r="F227" t="n">
         <v>1061034922</v>
       </c>
+      <c r="G227" t="n">
+        <v>43.83727928003478</v>
+      </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
@@ -5458,6 +6141,9 @@
       <c r="F228" t="n">
         <v>1364253429</v>
       </c>
+      <c r="G228" t="n">
+        <v>43.8337652385295</v>
+      </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
@@ -5480,6 +6166,9 @@
       <c r="F229" t="n">
         <v>1131452045</v>
       </c>
+      <c r="G229" t="n">
+        <v>43.66502539068912</v>
+      </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
@@ -5502,6 +6191,9 @@
       <c r="F230" t="n">
         <v>1336772691</v>
       </c>
+      <c r="G230" t="n">
+        <v>42.84953236393969</v>
+      </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
@@ -5524,6 +6216,9 @@
       <c r="F231" t="n">
         <v>885648540</v>
       </c>
+      <c r="G231" t="n">
+        <v>42.02345698932439</v>
+      </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
@@ -5546,6 +6241,9 @@
       <c r="F232" t="n">
         <v>1821467945</v>
       </c>
+      <c r="G232" t="n">
+        <v>40.49015743925892</v>
+      </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
@@ -5568,6 +6266,9 @@
       <c r="F233" t="n">
         <v>1203622743</v>
       </c>
+      <c r="G233" t="n">
+        <v>39.18505143668296</v>
+      </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
@@ -5590,6 +6291,9 @@
       <c r="F234" t="n">
         <v>982071275</v>
       </c>
+      <c r="G234" t="n">
+        <v>38.52208840508791</v>
+      </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
@@ -5612,6 +6316,9 @@
       <c r="F235" t="n">
         <v>1139846770</v>
       </c>
+      <c r="G235" t="n">
+        <v>37.76016142710694</v>
+      </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
@@ -5634,6 +6341,9 @@
       <c r="F236" t="n">
         <v>854779221</v>
       </c>
+      <c r="G236" t="n">
+        <v>37.23168398994691</v>
+      </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
@@ -5656,6 +6366,9 @@
       <c r="F237" t="n">
         <v>946325778</v>
       </c>
+      <c r="G237" t="n">
+        <v>36.66324205740159</v>
+      </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
@@ -5678,6 +6391,9 @@
       <c r="F238" t="n">
         <v>828503624</v>
       </c>
+      <c r="G238" t="n">
+        <v>36.32654741066594</v>
+      </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
@@ -5700,6 +6416,9 @@
       <c r="F239" t="n">
         <v>1315871629</v>
       </c>
+      <c r="G239" t="n">
+        <v>35.17650111509784</v>
+      </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
@@ -5722,6 +6441,9 @@
       <c r="F240" t="n">
         <v>764882265</v>
       </c>
+      <c r="G240" t="n">
+        <v>34.26798403258193</v>
+      </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
@@ -5744,6 +6466,9 @@
       <c r="F241" t="n">
         <v>562501615</v>
       </c>
+      <c r="G241" t="n">
+        <v>33.29905959960124</v>
+      </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
@@ -5766,6 +6491,9 @@
       <c r="F242" t="n">
         <v>891913484</v>
       </c>
+      <c r="G242" t="n">
+        <v>33.09061912444459</v>
+      </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
@@ -5788,6 +6516,9 @@
       <c r="F243" t="n">
         <v>861409804</v>
       </c>
+      <c r="G243" t="n">
+        <v>32.67097833564301</v>
+      </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
@@ -5810,6 +6541,9 @@
       <c r="F244" t="n">
         <v>769308937</v>
       </c>
+      <c r="G244" t="n">
+        <v>32.3714726776661</v>
+      </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
@@ -5832,6 +6566,9 @@
       <c r="F245" t="n">
         <v>666487074</v>
       </c>
+      <c r="G245" t="n">
+        <v>32.17502403339606</v>
+      </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
@@ -5854,6 +6591,9 @@
       <c r="F246" t="n">
         <v>659575995</v>
       </c>
+      <c r="G246" t="n">
+        <v>31.93825054228947</v>
+      </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
@@ -5876,6 +6616,9 @@
       <c r="F247" t="n">
         <v>314531753</v>
       </c>
+      <c r="G247" t="n">
+        <v>31.73105883643512</v>
+      </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
@@ -5898,6 +6641,9 @@
       <c r="F248" t="n">
         <v>392954663</v>
       </c>
+      <c r="G248" t="n">
+        <v>31.82503324780974</v>
+      </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
@@ -5920,6 +6666,9 @@
       <c r="F249" t="n">
         <v>512588616</v>
       </c>
+      <c r="G249" t="n">
+        <v>31.91743712152625</v>
+      </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
@@ -5942,6 +6691,9 @@
       <c r="F250" t="n">
         <v>1196204019</v>
       </c>
+      <c r="G250" t="n">
+        <v>31.6610135177194</v>
+      </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
@@ -5964,6 +6716,9 @@
       <c r="F251" t="n">
         <v>779212909</v>
       </c>
+      <c r="G251" t="n">
+        <v>31.92348974491797</v>
+      </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
@@ -5986,6 +6741,9 @@
       <c r="F252" t="n">
         <v>978070646</v>
       </c>
+      <c r="G252" t="n">
+        <v>32.34477890689404</v>
+      </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
@@ -6008,6 +6766,9 @@
       <c r="F253" t="n">
         <v>1186140934</v>
       </c>
+      <c r="G253" t="n">
+        <v>32.94352547197961</v>
+      </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
@@ -6030,6 +6791,9 @@
       <c r="F254" t="n">
         <v>731145106</v>
       </c>
+      <c r="G254" t="n">
+        <v>33.48932611845004</v>
+      </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
@@ -6052,6 +6816,9 @@
       <c r="F255" t="n">
         <v>757216096</v>
       </c>
+      <c r="G255" t="n">
+        <v>33.85848495291224</v>
+      </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
@@ -6074,6 +6841,9 @@
       <c r="F256" t="n">
         <v>1701399970</v>
       </c>
+      <c r="G256" t="n">
+        <v>34.7499094376456</v>
+      </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
@@ -6096,6 +6866,9 @@
       <c r="F257" t="n">
         <v>1785181627</v>
       </c>
+      <c r="G257" t="n">
+        <v>34.42013624083185</v>
+      </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
@@ -6118,6 +6891,9 @@
       <c r="F258" t="n">
         <v>1003604224</v>
       </c>
+      <c r="G258" t="n">
+        <v>34.33799513258922</v>
+      </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
@@ -6140,6 +6916,9 @@
       <c r="F259" t="n">
         <v>1139377803</v>
       </c>
+      <c r="G259" t="n">
+        <v>34.015417278397</v>
+      </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
@@ -6162,6 +6941,9 @@
       <c r="F260" t="n">
         <v>765952525</v>
       </c>
+      <c r="G260" t="n">
+        <v>33.56377758129531</v>
+      </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
@@ -6184,6 +6966,9 @@
       <c r="F261" t="n">
         <v>501302380</v>
       </c>
+      <c r="G261" t="n">
+        <v>33.61052773553202</v>
+      </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
@@ -6206,6 +6991,9 @@
       <c r="F262" t="n">
         <v>694870049</v>
       </c>
+      <c r="G262" t="n">
+        <v>32.97285942851059</v>
+      </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
@@ -6228,6 +7016,9 @@
       <c r="F263" t="n">
         <v>971182780</v>
       </c>
+      <c r="G263" t="n">
+        <v>32.90097025497669</v>
+      </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
@@ -6250,6 +7041,9 @@
       <c r="F264" t="n">
         <v>819978937</v>
       </c>
+      <c r="G264" t="n">
+        <v>32.53398784595664</v>
+      </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
@@ -6272,6 +7066,9 @@
       <c r="F265" t="n">
         <v>1193686258</v>
       </c>
+      <c r="G265" t="n">
+        <v>32.10708535163057</v>
+      </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
@@ -6294,6 +7091,9 @@
       <c r="F266" t="n">
         <v>833702543</v>
       </c>
+      <c r="G266" t="n">
+        <v>32.18254027104715</v>
+      </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
@@ -6316,6 +7116,9 @@
       <c r="F267" t="n">
         <v>982495447</v>
       </c>
+      <c r="G267" t="n">
+        <v>32.55606413883223</v>
+      </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
@@ -6338,6 +7141,9 @@
       <c r="F268" t="n">
         <v>872691785</v>
       </c>
+      <c r="G268" t="n">
+        <v>32.78271067889224</v>
+      </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
@@ -6360,6 +7166,9 @@
       <c r="F269" t="n">
         <v>610529879</v>
       </c>
+      <c r="G269" t="n">
+        <v>32.67087337934741</v>
+      </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
@@ -6382,6 +7191,9 @@
       <c r="F270" t="n">
         <v>936313674</v>
       </c>
+      <c r="G270" t="n">
+        <v>32.97329358431524</v>
+      </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
@@ -6404,6 +7216,9 @@
       <c r="F271" t="n">
         <v>1223724195</v>
       </c>
+      <c r="G271" t="n">
+        <v>32.91750261316319</v>
+      </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
@@ -6426,6 +7241,9 @@
       <c r="F272" t="n">
         <v>998520503</v>
       </c>
+      <c r="G272" t="n">
+        <v>32.99698678500667</v>
+      </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
@@ -6448,6 +7266,9 @@
       <c r="F273" t="n">
         <v>951223921</v>
       </c>
+      <c r="G273" t="n">
+        <v>33.235852538401</v>
+      </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
@@ -6470,6 +7291,9 @@
       <c r="F274" t="n">
         <v>1210784941</v>
       </c>
+      <c r="G274" t="n">
+        <v>33.23000048015573</v>
+      </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
@@ -6492,6 +7316,9 @@
       <c r="F275" t="n">
         <v>572976679</v>
       </c>
+      <c r="G275" t="n">
+        <v>33.03984903107627</v>
+      </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
@@ -6514,6 +7341,9 @@
       <c r="F276" t="n">
         <v>532211084</v>
       </c>
+      <c r="G276" t="n">
+        <v>32.79381137200105</v>
+      </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
@@ -6536,6 +7366,9 @@
       <c r="F277" t="n">
         <v>633204077</v>
       </c>
+      <c r="G277" t="n">
+        <v>32.83726374140313</v>
+      </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
@@ -6558,6 +7391,9 @@
       <c r="F278" t="n">
         <v>717157069</v>
       </c>
+      <c r="G278" t="n">
+        <v>33.15856551998057</v>
+      </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
@@ -6580,6 +7416,9 @@
       <c r="F279" t="n">
         <v>655950188</v>
       </c>
+      <c r="G279" t="n">
+        <v>33.38739490414558</v>
+      </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
@@ -6602,6 +7441,9 @@
       <c r="F280" t="n">
         <v>712289836</v>
       </c>
+      <c r="G280" t="n">
+        <v>33.37625098157598</v>
+      </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
@@ -6624,6 +7466,9 @@
       <c r="F281" t="n">
         <v>649212486</v>
       </c>
+      <c r="G281" t="n">
+        <v>33.28255444711948</v>
+      </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
@@ -6646,6 +7491,9 @@
       <c r="F282" t="n">
         <v>367021196</v>
       </c>
+      <c r="G282" t="n">
+        <v>33.10639940162379</v>
+      </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
@@ -6668,6 +7516,9 @@
       <c r="F283" t="n">
         <v>405849928</v>
       </c>
+      <c r="G283" t="n">
+        <v>33.05827035352497</v>
+      </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
@@ -6690,6 +7541,9 @@
       <c r="F284" t="n">
         <v>640691958</v>
       </c>
+      <c r="G284" t="n">
+        <v>32.78641144815764</v>
+      </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
@@ -6712,6 +7566,9 @@
       <c r="F285" t="n">
         <v>733071932</v>
       </c>
+      <c r="G285" t="n">
+        <v>32.28402579116584</v>
+      </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
@@ -6734,6 +7591,9 @@
       <c r="F286" t="n">
         <v>490127096</v>
       </c>
+      <c r="G286" t="n">
+        <v>32.0043906888944</v>
+      </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
@@ -6756,6 +7616,9 @@
       <c r="F287" t="n">
         <v>1302451856</v>
       </c>
+      <c r="G287" t="n">
+        <v>31.63942287278041</v>
+      </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
@@ -6778,6 +7641,9 @@
       <c r="F288" t="n">
         <v>836283411</v>
       </c>
+      <c r="G288" t="n">
+        <v>31.23142157429356</v>
+      </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
@@ -6800,6 +7666,9 @@
       <c r="F289" t="n">
         <v>547825492</v>
       </c>
+      <c r="G289" t="n">
+        <v>30.81740315581783</v>
+      </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
@@ -6822,6 +7691,9 @@
       <c r="F290" t="n">
         <v>608389719</v>
       </c>
+      <c r="G290" t="n">
+        <v>30.65526246894467</v>
+      </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
@@ -6844,6 +7716,9 @@
       <c r="F291" t="n">
         <v>658840500</v>
       </c>
+      <c r="G291" t="n">
+        <v>30.79766595266065</v>
+      </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
@@ -6866,6 +7741,9 @@
       <c r="F292" t="n">
         <v>715092973</v>
       </c>
+      <c r="G292" t="n">
+        <v>30.63933232353479</v>
+      </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
@@ -6888,6 +7766,9 @@
       <c r="F293" t="n">
         <v>697269954</v>
       </c>
+      <c r="G293" t="n">
+        <v>30.20469894205295</v>
+      </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
@@ -6910,6 +7791,9 @@
       <c r="F294" t="n">
         <v>803871622</v>
       </c>
+      <c r="G294" t="n">
+        <v>29.67479829635295</v>
+      </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
@@ -6932,6 +7816,9 @@
       <c r="F295" t="n">
         <v>967208274</v>
       </c>
+      <c r="G295" t="n">
+        <v>29.28326794986481</v>
+      </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
@@ -6954,6 +7841,9 @@
       <c r="F296" t="n">
         <v>474234383</v>
       </c>
+      <c r="G296" t="n">
+        <v>28.96591661486443</v>
+      </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
@@ -6976,6 +7866,9 @@
       <c r="F297" t="n">
         <v>633157057</v>
       </c>
+      <c r="G297" t="n">
+        <v>29.04195521856409</v>
+      </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
@@ -6998,6 +7891,9 @@
       <c r="F298" t="n">
         <v>667625312</v>
       </c>
+      <c r="G298" t="n">
+        <v>28.85898249287204</v>
+      </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
@@ -7020,6 +7916,9 @@
       <c r="F299" t="n">
         <v>1336242036</v>
       </c>
+      <c r="G299" t="n">
+        <v>29.37923080428538</v>
+      </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
@@ -7042,6 +7941,9 @@
       <c r="F300" t="n">
         <v>1250974763</v>
       </c>
+      <c r="G300" t="n">
+        <v>29.85560344684196</v>
+      </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
@@ -7064,6 +7966,9 @@
       <c r="F301" t="n">
         <v>1275994871</v>
       </c>
+      <c r="G301" t="n">
+        <v>30.04935877791101</v>
+      </c>
     </row>
     <row r="302">
       <c r="A302" t="inlineStr">
@@ -7086,6 +7991,9 @@
       <c r="F302" t="n">
         <v>1063403956</v>
       </c>
+      <c r="G302" t="n">
+        <v>30.56483490221988</v>
+      </c>
     </row>
     <row r="303">
       <c r="A303" t="inlineStr">
@@ -7108,6 +8016,9 @@
       <c r="F303" t="n">
         <v>1165931963</v>
       </c>
+      <c r="G303" t="n">
+        <v>31.13790821249255</v>
+      </c>
     </row>
     <row r="304">
       <c r="A304" t="inlineStr">
@@ -7130,6 +8041,9 @@
       <c r="F304" t="n">
         <v>731319297</v>
       </c>
+      <c r="G304" t="n">
+        <v>31.59491389404959</v>
+      </c>
     </row>
     <row r="305">
       <c r="A305" t="inlineStr">
@@ -7152,6 +8066,9 @@
       <c r="F305" t="n">
         <v>1174404933</v>
       </c>
+      <c r="G305" t="n">
+        <v>31.84894497253914</v>
+      </c>
     </row>
     <row r="306">
       <c r="A306" t="inlineStr">
@@ -7174,6 +8091,9 @@
       <c r="F306" t="n">
         <v>729292793</v>
       </c>
+      <c r="G306" t="n">
+        <v>31.94881486191168</v>
+      </c>
     </row>
     <row r="307">
       <c r="A307" t="inlineStr">
@@ -7196,6 +8116,9 @@
       <c r="F307" t="n">
         <v>1166999748</v>
       </c>
+      <c r="G307" t="n">
+        <v>31.65863024662297</v>
+      </c>
     </row>
     <row r="308">
       <c r="A308" t="inlineStr">
@@ -7218,6 +8141,9 @@
       <c r="F308" t="n">
         <v>832207929</v>
       </c>
+      <c r="G308" t="n">
+        <v>31.45494260989398</v>
+      </c>
     </row>
     <row r="309">
       <c r="A309" t="inlineStr">
@@ -7240,6 +8166,9 @@
       <c r="F309" t="n">
         <v>1364403572</v>
       </c>
+      <c r="G309" t="n">
+        <v>32.03642027529158</v>
+      </c>
     </row>
     <row r="310">
       <c r="A310" t="inlineStr">
@@ -7262,6 +8191,9 @@
       <c r="F310" t="n">
         <v>2470595904</v>
       </c>
+      <c r="G310" t="n">
+        <v>33.21875578874408</v>
+      </c>
     </row>
     <row r="311">
       <c r="A311" t="inlineStr">
@@ -7284,6 +8216,9 @@
       <c r="F311" t="n">
         <v>1650006613</v>
       </c>
+      <c r="G311" t="n">
+        <v>33.0849624180351</v>
+      </c>
     </row>
     <row r="312">
       <c r="A312" t="inlineStr">
@@ -7306,6 +8241,9 @@
       <c r="F312" t="n">
         <v>2545092967</v>
       </c>
+      <c r="G312" t="n">
+        <v>32.21405807909029</v>
+      </c>
     </row>
     <row r="313">
       <c r="A313" t="inlineStr">
@@ -7328,6 +8266,9 @@
       <c r="F313" t="n">
         <v>6120104231</v>
       </c>
+      <c r="G313" t="n">
+        <v>30.19877779317392</v>
+      </c>
     </row>
     <row r="314">
       <c r="A314" t="inlineStr">
@@ -7350,6 +8291,9 @@
       <c r="F314" t="n">
         <v>4647808136</v>
       </c>
+      <c r="G314" t="n">
+        <v>26.13429757827888</v>
+      </c>
     </row>
     <row r="315">
       <c r="A315" t="inlineStr">
@@ -7372,6 +8316,9 @@
       <c r="F315" t="n">
         <v>4084381465</v>
       </c>
+      <c r="G315" t="n">
+        <v>24.02107516582586</v>
+      </c>
     </row>
     <row r="316">
       <c r="A316" t="inlineStr">
@@ -7394,6 +8341,9 @@
       <c r="F316" t="n">
         <v>2191908978</v>
       </c>
+      <c r="G316" t="n">
+        <v>22.09749287110401</v>
+      </c>
     </row>
     <row r="317">
       <c r="A317" t="inlineStr">
@@ -7416,6 +8366,9 @@
       <c r="F317" t="n">
         <v>866923655</v>
       </c>
+      <c r="G317" t="n">
+        <v>20.20787001953895</v>
+      </c>
     </row>
     <row r="318">
       <c r="A318" t="inlineStr">
@@ -7438,6 +8391,9 @@
       <c r="F318" t="n">
         <v>880792311</v>
       </c>
+      <c r="G318" t="n">
+        <v>18.44703472633939</v>
+      </c>
     </row>
     <row r="319">
       <c r="A319" t="inlineStr">
@@ -7460,6 +8416,9 @@
       <c r="F319" t="n">
         <v>1365413449</v>
       </c>
+      <c r="G319" t="n">
+        <v>17.33561507597403</v>
+      </c>
     </row>
     <row r="320">
       <c r="A320" t="inlineStr">
@@ -7482,6 +8441,9 @@
       <c r="F320" t="n">
         <v>833458645</v>
       </c>
+      <c r="G320" t="n">
+        <v>16.57703488867608</v>
+      </c>
     </row>
     <row r="321">
       <c r="A321" t="inlineStr">
@@ -7504,6 +8466,9 @@
       <c r="F321" t="n">
         <v>487495993</v>
       </c>
+      <c r="G321" t="n">
+        <v>16.00415320546275</v>
+      </c>
     </row>
     <row r="322">
       <c r="A322" t="inlineStr">
@@ -7526,6 +8491,9 @@
       <c r="F322" t="n">
         <v>673219780</v>
       </c>
+      <c r="G322" t="n">
+        <v>15.41279860847328</v>
+      </c>
     </row>
     <row r="323">
       <c r="A323" t="inlineStr">
@@ -7548,6 +8516,9 @@
       <c r="F323" t="n">
         <v>357193046</v>
       </c>
+      <c r="G323" t="n">
+        <v>14.87147310758482</v>
+      </c>
     </row>
     <row r="324">
       <c r="A324" t="inlineStr">
@@ -7570,6 +8541,9 @@
       <c r="F324" t="n">
         <v>314294255</v>
       </c>
+      <c r="G324" t="n">
+        <v>14.36635836500563</v>
+      </c>
     </row>
     <row r="325">
       <c r="A325" t="inlineStr">
@@ -7592,6 +8566,9 @@
       <c r="F325" t="n">
         <v>508411732</v>
       </c>
+      <c r="G325" t="n">
+        <v>13.83797711535273</v>
+      </c>
     </row>
     <row r="326">
       <c r="A326" t="inlineStr">
@@ -7614,6 +8591,9 @@
       <c r="F326" t="n">
         <v>504498729</v>
       </c>
+      <c r="G326" t="n">
+        <v>13.34003497961148</v>
+      </c>
     </row>
     <row r="327">
       <c r="A327" t="inlineStr">
@@ -7636,6 +8616,9 @@
       <c r="F327" t="n">
         <v>529418278</v>
       </c>
+      <c r="G327" t="n">
+        <v>13.1139325037821</v>
+      </c>
     </row>
     <row r="328">
       <c r="A328" t="inlineStr">
@@ -7658,6 +8641,9 @@
       <c r="F328" t="n">
         <v>859905329</v>
       </c>
+      <c r="G328" t="n">
+        <v>13.42332736665188</v>
+      </c>
     </row>
     <row r="329">
       <c r="A329" t="inlineStr">
@@ -7680,6 +8666,9 @@
       <c r="F329" t="n">
         <v>620159372</v>
       </c>
+      <c r="G329" t="n">
+        <v>13.71308320771291</v>
+      </c>
     </row>
     <row r="330">
       <c r="A330" t="inlineStr">
@@ -7702,6 +8691,9 @@
       <c r="F330" t="n">
         <v>323667943</v>
       </c>
+      <c r="G330" t="n">
+        <v>13.8005969078141</v>
+      </c>
     </row>
     <row r="331">
       <c r="A331" t="inlineStr">
@@ -7724,6 +8716,9 @@
       <c r="F331" t="n">
         <v>333271818</v>
       </c>
+      <c r="G331" t="n">
+        <v>13.89024617901426</v>
+      </c>
     </row>
     <row r="332">
       <c r="A332" t="inlineStr">
@@ -7746,6 +8741,9 @@
       <c r="F332" t="n">
         <v>225035409</v>
       </c>
+      <c r="G332" t="n">
+        <v>13.94662626557783</v>
+      </c>
     </row>
     <row r="333">
       <c r="A333" t="inlineStr">
@@ -7768,6 +8766,9 @@
       <c r="F333" t="n">
         <v>447463511</v>
       </c>
+      <c r="G333" t="n">
+        <v>13.81109923104373</v>
+      </c>
     </row>
     <row r="334">
       <c r="A334" t="inlineStr">
@@ -7790,6 +8791,9 @@
       <c r="F334" t="n">
         <v>265372933</v>
       </c>
+      <c r="G334" t="n">
+        <v>13.70075787588899</v>
+      </c>
     </row>
     <row r="335">
       <c r="A335" t="inlineStr">
@@ -7812,6 +8816,9 @@
       <c r="F335" t="n">
         <v>331594403</v>
       </c>
+      <c r="G335" t="n">
+        <v>13.80442969117273</v>
+      </c>
     </row>
     <row r="336">
       <c r="A336" t="inlineStr">
@@ -7834,6 +8841,9 @@
       <c r="F336" t="n">
         <v>232200065</v>
       </c>
+      <c r="G336" t="n">
+        <v>13.723564387215</v>
+      </c>
     </row>
     <row r="337">
       <c r="A337" t="inlineStr">
@@ -7856,6 +8866,9 @@
       <c r="F337" t="n">
         <v>245049936</v>
       </c>
+      <c r="G337" t="n">
+        <v>13.7215833074248</v>
+      </c>
     </row>
     <row r="338">
       <c r="A338" t="inlineStr">
@@ -7878,6 +8891,9 @@
       <c r="F338" t="n">
         <v>161314094</v>
       </c>
+      <c r="G338" t="n">
+        <v>13.61680193293066</v>
+      </c>
     </row>
     <row r="339">
       <c r="A339" t="inlineStr">
@@ -7900,6 +8916,9 @@
       <c r="F339" t="n">
         <v>141802483</v>
       </c>
+      <c r="G339" t="n">
+        <v>13.64215615054944</v>
+      </c>
     </row>
     <row r="340">
       <c r="A340" t="inlineStr">
@@ -7922,6 +8941,9 @@
       <c r="F340" t="n">
         <v>335440747</v>
       </c>
+      <c r="G340" t="n">
+        <v>13.6893953283204</v>
+      </c>
     </row>
     <row r="341">
       <c r="A341" t="inlineStr">
@@ -7944,6 +8966,9 @@
       <c r="F341" t="n">
         <v>279979830</v>
       </c>
+      <c r="G341" t="n">
+        <v>13.83926014599006</v>
+      </c>
     </row>
     <row r="342">
       <c r="A342" t="inlineStr">
@@ -7966,6 +8991,9 @@
       <c r="F342" t="n">
         <v>223134812</v>
       </c>
+      <c r="G342" t="n">
+        <v>13.75935843957067</v>
+      </c>
     </row>
     <row r="343">
       <c r="A343" t="inlineStr">
@@ -7988,6 +9016,9 @@
       <c r="F343" t="n">
         <v>195918913</v>
       </c>
+      <c r="G343" t="n">
+        <v>13.74182441363186</v>
+      </c>
     </row>
     <row r="344">
       <c r="A344" t="inlineStr">
@@ -8010,6 +9041,9 @@
       <c r="F344" t="n">
         <v>211833041</v>
       </c>
+      <c r="G344" t="n">
+        <v>13.70141525961049</v>
+      </c>
     </row>
     <row r="345">
       <c r="A345" t="inlineStr">
@@ -8032,6 +9066,9 @@
       <c r="F345" t="n">
         <v>109293691</v>
       </c>
+      <c r="G345" t="n">
+        <v>13.67031040711021</v>
+      </c>
     </row>
     <row r="346">
       <c r="A346" t="inlineStr">
@@ -8054,6 +9091,9 @@
       <c r="F346" t="n">
         <v>117436002</v>
       </c>
+      <c r="G346" t="n">
+        <v>13.60968523415041</v>
+      </c>
     </row>
     <row r="347">
       <c r="A347" t="inlineStr">
@@ -8076,6 +9116,9 @@
       <c r="F347" t="n">
         <v>205298705</v>
       </c>
+      <c r="G347" t="n">
+        <v>13.53690002256715</v>
+      </c>
     </row>
     <row r="348">
       <c r="A348" t="inlineStr">
@@ -8098,6 +9141,9 @@
       <c r="F348" t="n">
         <v>315949878</v>
       </c>
+      <c r="G348" t="n">
+        <v>13.61117158751252</v>
+      </c>
     </row>
     <row r="349">
       <c r="A349" t="inlineStr">
@@ -8120,6 +9166,9 @@
       <c r="F349" t="n">
         <v>441479811</v>
       </c>
+      <c r="G349" t="n">
+        <v>13.74351014510216</v>
+      </c>
     </row>
     <row r="350">
       <c r="A350" t="inlineStr">
@@ -8142,6 +9191,9 @@
       <c r="F350" t="n">
         <v>272679087</v>
       </c>
+      <c r="G350" t="n">
+        <v>13.81301037829684</v>
+      </c>
     </row>
     <row r="351">
       <c r="A351" t="inlineStr">
@@ -8164,6 +9216,9 @@
       <c r="F351" t="n">
         <v>358747840</v>
       </c>
+      <c r="G351" t="n">
+        <v>13.42640936644052</v>
+      </c>
     </row>
     <row r="352">
       <c r="A352" t="inlineStr">
@@ -8186,6 +9241,9 @@
       <c r="F352" t="n">
         <v>222801055</v>
       </c>
+      <c r="G352" t="n">
+        <v>13.19590804182868</v>
+      </c>
     </row>
     <row r="353">
       <c r="A353" t="inlineStr">
@@ -8208,6 +9266,9 @@
       <c r="F353" t="n">
         <v>110722042</v>
       </c>
+      <c r="G353" t="n">
+        <v>13.00021109881536</v>
+      </c>
     </row>
     <row r="354">
       <c r="A354" t="inlineStr">
@@ -8230,6 +9291,9 @@
       <c r="F354" t="n">
         <v>206060595</v>
       </c>
+      <c r="G354" t="n">
+        <v>12.73332215772968</v>
+      </c>
     </row>
     <row r="355">
       <c r="A355" t="inlineStr">
@@ -8252,6 +9316,9 @@
       <c r="F355" t="n">
         <v>177388342</v>
       </c>
+      <c r="G355" t="n">
+        <v>12.62012029757278</v>
+      </c>
     </row>
     <row r="356">
       <c r="A356" t="inlineStr">
@@ -8274,6 +9341,9 @@
       <c r="F356" t="n">
         <v>167974882</v>
       </c>
+      <c r="G356" t="n">
+        <v>12.49733657442165</v>
+      </c>
     </row>
     <row r="357">
       <c r="A357" t="inlineStr">
@@ -8296,6 +9366,9 @@
       <c r="F357" t="n">
         <v>181200151</v>
       </c>
+      <c r="G357" t="n">
+        <v>12.32170977296406</v>
+      </c>
     </row>
     <row r="358">
       <c r="A358" t="inlineStr">
@@ -8318,6 +9391,9 @@
       <c r="F358" t="n">
         <v>157181374</v>
       </c>
+      <c r="G358" t="n">
+        <v>12.18782387749831</v>
+      </c>
     </row>
     <row r="359">
       <c r="A359" t="inlineStr">
@@ -8340,6 +9416,9 @@
       <c r="F359" t="n">
         <v>202780776</v>
       </c>
+      <c r="G359" t="n">
+        <v>12.00193687212825</v>
+      </c>
     </row>
     <row r="360">
       <c r="A360" t="inlineStr">
@@ -8362,6 +9441,9 @@
       <c r="F360" t="n">
         <v>105389060</v>
       </c>
+      <c r="G360" t="n">
+        <v>11.84842845747143</v>
+      </c>
     </row>
     <row r="361">
       <c r="A361" t="inlineStr">
@@ -8384,6 +9466,9 @@
       <c r="F361" t="n">
         <v>132410401</v>
       </c>
+      <c r="G361" t="n">
+        <v>11.71297410837762</v>
+      </c>
     </row>
     <row r="362">
       <c r="A362" t="inlineStr">
@@ -8406,6 +9491,9 @@
       <c r="F362" t="n">
         <v>223332961</v>
       </c>
+      <c r="G362" t="n">
+        <v>11.55608811759913</v>
+      </c>
     </row>
     <row r="363">
       <c r="A363" t="inlineStr">
@@ -8428,6 +9516,9 @@
       <c r="F363" t="n">
         <v>468728777</v>
       </c>
+      <c r="G363" t="n">
+        <v>11.10604261445973</v>
+      </c>
     </row>
     <row r="364">
       <c r="A364" t="inlineStr">
@@ -8450,6 +9541,9 @@
       <c r="F364" t="n">
         <v>772500177</v>
       </c>
+      <c r="G364" t="n">
+        <v>10.74247770822029</v>
+      </c>
     </row>
     <row r="365">
       <c r="A365" t="inlineStr">
@@ -8471,6 +9565,9 @@
       </c>
       <c r="F365" t="n">
         <v>837030648</v>
+      </c>
+      <c r="G365" t="n">
+        <v>10.52690241721258</v>
       </c>
     </row>
   </sheetData>
